--- a/database/industries/zeraat/zegoldasht/cost/yearly.xlsx
+++ b/database/industries/zeraat/zegoldasht/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\zegoldasht\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9398D4-32A9-45E1-B414-4EF658BA3624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6287ED08-2000-4DCE-9084-9C9E08CDB238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -674,12 +674,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -689,7 +689,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -723,7 +723,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -757,7 +757,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -779,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -789,7 +789,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -811,7 +811,7 @@
         <v>2652344</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -833,7 +833,7 @@
         <v>211243</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -855,7 +855,7 @@
         <v>418014</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -877,7 +877,7 @@
         <v>3281601</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -965,7 +965,7 @@
         <v>-650830</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
@@ -987,7 +987,7 @@
         <v>2630771</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>10925</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>-15761</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>2625935</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1063,7 +1063,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1073,7 +1073,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1083,7 +1083,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1115,7 +1115,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>25</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>26</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>17270</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>33</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>34</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>35</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>37</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>1022063</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1435,7 +1435,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1445,7 +1445,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1455,7 +1455,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>38</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1487,7 +1487,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>23</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>25</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>26</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>27</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>9892</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>28</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>46913</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>29</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>30</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>11253</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>31</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>32</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>33</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>34</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>4976</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>35</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>37</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>1084510</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1807,7 +1807,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1817,7 +1817,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1827,7 +1827,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>39</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1859,7 +1859,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>23</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>25</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>26</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>8437</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>28</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>29</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>30</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>11290</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>31</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>32</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>33</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>34</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>4817</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>35</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
         <v>37</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>1076377</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2179,7 +2179,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2189,7 +2189,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2199,7 +2199,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>40</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2231,7 +2231,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>23</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>25</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>26</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>28</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>24901</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>29</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>30</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>31</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>32</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>33</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>34</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>35</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
         <v>37</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>1030196</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2551,7 +2551,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2561,7 +2561,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2571,7 +2571,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>41</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2603,7 +2603,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
         <v>23</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>19246</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>25</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>14391</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>26</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>8605</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>27</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>28152</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>28</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>131451</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>29</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>31843</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
         <v>30</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>29189</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>31</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>60008</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
         <v>32</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>15628</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>33</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>10147</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>34</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>35</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>111270</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="14" t="s">
         <v>37</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>464663</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2923,7 +2923,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2933,7 +2933,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2943,7 +2943,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>43</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2975,7 +2975,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
         <v>23</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>113772</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>25</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>163820</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
         <v>26</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>224287</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
         <v>27</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>490851</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
         <v>28</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>715700</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
         <v>29</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>143426</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
         <v>30</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>415349</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
         <v>31</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>61507</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
         <v>32</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>194923</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
         <v>33</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>60076</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
         <v>34</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>172768</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
         <v>35</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>220515</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
         <v>37</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>2976994</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3295,7 +3295,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3305,7 +3305,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3315,7 +3315,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
         <v>44</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3347,7 +3347,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
         <v>23</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>123515</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
         <v>25</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>165825</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
         <v>26</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>216075</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
         <v>27</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>400951</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
         <v>28</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>486851</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
         <v>29</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>151130</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
         <v>30</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>407268</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
         <v>31</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>99332</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
         <v>32</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>181986</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
         <v>33</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>57605</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
         <v>34</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>165129</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
         <v>35</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>196677</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="14" t="s">
         <v>37</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>2652344</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3667,7 +3667,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3677,7 +3677,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3687,7 +3687,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
         <v>45</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3719,7 +3719,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
         <v>23</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>9503</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
         <v>25</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>12386</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
         <v>26</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>16817</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
         <v>27</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>118052</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
         <v>28</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>360300</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
         <v>29</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>24139</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
         <v>30</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>37270</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
         <v>31</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>22183</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
         <v>32</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>28565</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
         <v>33</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>12618</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
         <v>34</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>12372</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
         <v>35</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>135108</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="14" t="s">
         <v>37</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>789313</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4039,7 +4039,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4049,7 +4049,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4059,7 +4059,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
         <v>46</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4091,7 +4091,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
         <v>23</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>155209677</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
         <v>25</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>107395522</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
         <v>26</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>226447368</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
         <v>27</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>30600000</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
         <v>28</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>7611523</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
         <v>29</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>31279961</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
         <v>30</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>27852099</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
         <v>31</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>76443312</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
         <v>32</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>38875622</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
         <v>33</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>99480392</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
         <v>34</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>21319820</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
         <v>35</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>111270</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4389,7 +4389,7 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4399,7 +4399,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4409,7 +4409,7 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
         <v>49</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4441,7 +4441,7 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" s="8" t="s">
         <v>23</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>127404255</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="10" t="s">
         <v>25</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>106307592</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" s="8" t="s">
         <v>26</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>295114474</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
         <v>27</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>49621007</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="s">
         <v>28</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>15255899</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
         <v>29</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>52517759</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="s">
         <v>30</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>36910068</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
         <v>31</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>110425494</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="s">
         <v>32</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>45048070</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
         <v>33</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>90068966</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" s="8" t="s">
         <v>34</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>34720257</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="10" t="s">
         <v>35</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>220515</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -4739,7 +4739,7 @@
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -4749,7 +4749,7 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -4759,7 +4759,7 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
         <v>50</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4791,7 +4791,7 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
         <v>23</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>130290084</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
         <v>25</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>105018999</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
         <v>26</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>286952191</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
         <v>27</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>47522935</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
         <v>28</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>12393743</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
         <v>29</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>45398017</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
         <v>30</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>36073339</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" s="10" t="s">
         <v>31</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>84754266</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
         <v>32</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>44257296</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" s="10" t="s">
         <v>33</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>87545593</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" s="8" t="s">
         <v>34</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>34280465</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" s="10" t="s">
         <v>35</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>196677</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -5089,7 +5089,7 @@
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -5099,7 +5099,7 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -5109,7 +5109,7 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B220" s="7" t="s">
         <v>51</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -5141,7 +5141,7 @@
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B222" s="8" t="s">
         <v>23</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>137724638</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" s="10" t="s">
         <v>25</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>129020833</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" s="8" t="s">
         <v>26</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>373711111</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" s="10" t="s">
         <v>27</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>49706105</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" s="8" t="s">
         <v>28</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>14469298</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" s="10" t="s">
         <v>29</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>57473810</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" s="8" t="s">
         <v>30</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>36864491</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" s="10" t="s">
         <v>31</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>130488235</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230" s="8" t="s">
         <v>32</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>46296596</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B231" s="10" t="s">
         <v>33</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>113675676</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" s="8" t="s">
         <v>34</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>32472441</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B233" s="10" t="s">
         <v>35</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>135108</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -5439,7 +5439,7 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -5449,7 +5449,7 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -5459,7 +5459,7 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B237" s="7" t="s">
         <v>53</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -5491,7 +5491,7 @@
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B239" s="8" t="s">
         <v>54</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>55724</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B240" s="10" t="s">
         <v>55</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>12194</v>
       </c>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B241" s="8" t="s">
         <v>56</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B242" s="10" t="s">
         <v>57</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B243" s="8" t="s">
         <v>58</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B244" s="10" t="s">
         <v>59</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>23098</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B245" s="8" t="s">
         <v>60</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B246" s="10" t="s">
         <v>61</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>67943</v>
       </c>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B247" s="8" t="s">
         <v>62</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>64515</v>
       </c>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B248" s="10" t="s">
         <v>63</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B249" s="8" t="s">
         <v>64</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>189868</v>
       </c>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B250" s="12" t="s">
         <v>37</v>
       </c>

--- a/database/industries/zeraat/zegoldasht/cost/yearly.xlsx
+++ b/database/industries/zeraat/zegoldasht/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6287ED08-2000-4DCE-9084-9C9E08CDB238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8110F8F4-EDA0-44B4-BC1B-D3881A334F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -130,7 +130,7 @@
     <t>سایر</t>
   </si>
   <si>
-    <t>سایر واحدهای مختلف</t>
+    <t>متفرقه حسب مورد</t>
   </si>
   <si>
     <t>جمع</t>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>نرخ موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>متفرقه حسب مورد</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -674,12 +671,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -689,7 +686,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +698,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -713,7 +710,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -723,7 +720,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -735,7 +732,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -747,7 +744,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -757,7 +754,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -779,7 +776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -789,95 +786,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>377207</v>
+        <v>518656</v>
       </c>
       <c r="F10" s="9">
-        <v>518656</v>
+        <v>792696</v>
       </c>
       <c r="G10" s="9">
-        <v>792696</v>
+        <v>1405095</v>
       </c>
       <c r="H10" s="9">
-        <v>1405095</v>
+        <v>2652344</v>
       </c>
       <c r="I10" s="9">
-        <v>2652344</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6094564</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>40204</v>
+        <v>51080</v>
       </c>
       <c r="F11" s="11">
-        <v>51080</v>
+        <v>78843</v>
       </c>
       <c r="G11" s="11">
-        <v>78843</v>
+        <v>128892</v>
       </c>
       <c r="H11" s="11">
-        <v>128892</v>
+        <v>211243</v>
       </c>
       <c r="I11" s="11">
-        <v>211243</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>453218</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>84317</v>
+        <v>109833</v>
       </c>
       <c r="F12" s="9">
-        <v>109833</v>
+        <v>136353</v>
       </c>
       <c r="G12" s="9">
-        <v>136353</v>
+        <v>226511</v>
       </c>
       <c r="H12" s="9">
-        <v>226511</v>
+        <v>418014</v>
       </c>
       <c r="I12" s="9">
-        <v>418014</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>858278</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>501728</v>
+        <v>679569</v>
       </c>
       <c r="F13" s="13">
-        <v>679569</v>
+        <v>1007892</v>
       </c>
       <c r="G13" s="13">
-        <v>1007892</v>
+        <v>1760498</v>
       </c>
       <c r="H13" s="13">
-        <v>1760498</v>
+        <v>3281601</v>
       </c>
       <c r="I13" s="13">
-        <v>3281601</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7406060</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -899,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
@@ -921,20 +918,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-75503</v>
+        <v>-110212</v>
       </c>
       <c r="F16" s="9">
-        <v>-110212</v>
+        <v>-178649</v>
       </c>
       <c r="G16" s="9">
-        <v>-178649</v>
+        <v>0</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
@@ -943,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -955,105 +952,105 @@
       <c r="F17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>17</v>
+      <c r="G17" s="11">
+        <v>-309319</v>
       </c>
       <c r="H17" s="11">
-        <v>-309319</v>
+        <v>-650830</v>
       </c>
       <c r="I17" s="11">
-        <v>-650830</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1467132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>426225</v>
+        <v>569357</v>
       </c>
       <c r="F18" s="15">
-        <v>569357</v>
+        <v>829243</v>
       </c>
       <c r="G18" s="15">
-        <v>829243</v>
+        <v>1451179</v>
       </c>
       <c r="H18" s="15">
-        <v>1451179</v>
+        <v>2630771</v>
       </c>
       <c r="I18" s="15">
-        <v>2630771</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5938928</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>12788</v>
       </c>
       <c r="F19" s="11">
-        <v>12788</v>
+        <v>27941</v>
       </c>
       <c r="G19" s="11">
-        <v>27941</v>
+        <v>6690</v>
       </c>
       <c r="H19" s="11">
-        <v>6690</v>
+        <v>10925</v>
       </c>
       <c r="I19" s="11">
-        <v>10925</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15761</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-8476</v>
+        <v>-27941</v>
       </c>
       <c r="F20" s="9">
-        <v>-27941</v>
+        <v>-46819</v>
       </c>
       <c r="G20" s="9">
-        <v>-46819</v>
+        <v>-10925</v>
       </c>
       <c r="H20" s="9">
-        <v>-10925</v>
+        <v>-15761</v>
       </c>
       <c r="I20" s="9">
-        <v>-15761</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-45474</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>417749</v>
+        <v>554204</v>
       </c>
       <c r="F21" s="13">
-        <v>554204</v>
+        <v>810365</v>
       </c>
       <c r="G21" s="13">
-        <v>810365</v>
+        <v>1446944</v>
       </c>
       <c r="H21" s="13">
-        <v>1446944</v>
+        <v>2625935</v>
       </c>
       <c r="I21" s="13">
-        <v>2625935</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5909215</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1063,7 +1060,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1073,7 +1070,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1083,7 +1080,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1115,7 +1112,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -1123,23 +1120,23 @@
         <v>24</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>17</v>
+      <c r="E27" s="9">
+        <v>38000</v>
       </c>
       <c r="F27" s="9">
-        <v>38000</v>
+        <v>46744</v>
       </c>
       <c r="G27" s="9">
-        <v>46744</v>
+        <v>29000</v>
       </c>
       <c r="H27" s="9">
-        <v>29000</v>
+        <v>124</v>
       </c>
       <c r="I27" s="9">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68933</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>25</v>
       </c>
@@ -1147,23 +1144,23 @@
         <v>24</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="E28" s="11">
         <v>3</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>17</v>
+      <c r="F28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="11">
+        <v>65000</v>
       </c>
       <c r="H28" s="11">
-        <v>65000</v>
+        <v>134</v>
       </c>
       <c r="I28" s="11">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>95869</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>26</v>
       </c>
@@ -1171,23 +1168,23 @@
         <v>24</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="E29" s="9">
         <v>41000</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>17</v>
+      <c r="F29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="9">
+        <v>20000</v>
       </c>
       <c r="H29" s="9">
-        <v>20000</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1195,23 +1192,23 @@
         <v>24</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>17</v>
+      <c r="E30" s="11">
+        <v>1375000</v>
       </c>
       <c r="F30" s="11">
-        <v>1375000</v>
+        <v>586046</v>
       </c>
       <c r="G30" s="11">
-        <v>586046</v>
+        <v>484000</v>
       </c>
       <c r="H30" s="11">
-        <v>484000</v>
+        <v>920</v>
       </c>
       <c r="I30" s="11">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2375589</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1219,23 +1216,23 @@
         <v>24</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>17</v>
+      <c r="E31" s="9">
+        <v>19413000</v>
       </c>
       <c r="F31" s="9">
-        <v>19413000</v>
+        <v>10944083</v>
       </c>
       <c r="G31" s="9">
-        <v>10944083</v>
+        <v>17424000</v>
       </c>
       <c r="H31" s="9">
-        <v>17424000</v>
+        <v>17270</v>
       </c>
       <c r="I31" s="9">
-        <v>17270</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24901217</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1243,23 +1240,23 @@
         <v>24</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>17</v>
+      <c r="E32" s="11">
+        <v>1073000</v>
       </c>
       <c r="F32" s="11">
-        <v>1073000</v>
+        <v>1065253</v>
       </c>
       <c r="G32" s="11">
-        <v>1065253</v>
+        <v>468000</v>
       </c>
       <c r="H32" s="11">
-        <v>468000</v>
+        <v>1018</v>
       </c>
       <c r="I32" s="11">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>420161</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1267,23 +1264,23 @@
         <v>24</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>17</v>
+      <c r="E33" s="9">
+        <v>457000</v>
       </c>
       <c r="F33" s="9">
-        <v>457000</v>
+        <v>203834</v>
       </c>
       <c r="G33" s="9">
-        <v>203834</v>
+        <v>377000</v>
       </c>
       <c r="H33" s="9">
-        <v>377000</v>
+        <v>1048</v>
       </c>
       <c r="I33" s="9">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1011478</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1297,17 +1294,17 @@
       <c r="F34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>17</v>
+      <c r="G34" s="11">
+        <v>707000</v>
       </c>
       <c r="H34" s="11">
-        <v>707000</v>
+        <v>785</v>
       </c>
       <c r="I34" s="11">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>170009</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1315,23 +1312,23 @@
         <v>24</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>17</v>
+      <c r="E35" s="9">
+        <v>214000</v>
       </c>
       <c r="F35" s="9">
-        <v>214000</v>
+        <v>60973</v>
       </c>
       <c r="G35" s="9">
-        <v>60973</v>
+        <v>757000</v>
       </c>
       <c r="H35" s="9">
-        <v>757000</v>
+        <v>402</v>
       </c>
       <c r="I35" s="9">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>616988</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>33</v>
       </c>
@@ -1342,20 +1339,20 @@
       <c r="E36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>17</v>
+      <c r="F36" s="11">
+        <v>54942</v>
       </c>
       <c r="G36" s="11">
-        <v>54942</v>
+        <v>92000</v>
       </c>
       <c r="H36" s="11">
-        <v>92000</v>
+        <v>102</v>
       </c>
       <c r="I36" s="11">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>111550</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>34</v>
       </c>
@@ -1363,23 +1360,23 @@
         <v>24</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>17</v>
+      <c r="E37" s="9">
+        <v>0</v>
       </c>
       <c r="F37" s="9">
-        <v>0</v>
+        <v>788420</v>
       </c>
       <c r="G37" s="9">
-        <v>788420</v>
+        <v>287000</v>
       </c>
       <c r="H37" s="9">
-        <v>287000</v>
+        <v>222</v>
       </c>
       <c r="I37" s="9">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>380557</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>35</v>
       </c>
@@ -1387,8 +1384,8 @@
         <v>36</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>17</v>
+      <c r="E38" s="11">
+        <v>0</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -1397,35 +1394,35 @@
         <v>0</v>
       </c>
       <c r="H38" s="11">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="I38" s="11">
         <v>1000000</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>22611003</v>
       </c>
       <c r="F39" s="15">
-        <v>22611003</v>
+        <v>13750295</v>
       </c>
       <c r="G39" s="15">
-        <v>13750295</v>
+        <v>20710000</v>
       </c>
       <c r="H39" s="15">
-        <v>20710000</v>
+        <v>1022063</v>
       </c>
       <c r="I39" s="15">
-        <v>1022063</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31197158</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1435,7 +1432,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1445,7 +1442,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1455,7 +1452,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>38</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1487,7 +1484,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>23</v>
       </c>
@@ -1495,23 +1492,23 @@
         <v>24</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>17</v>
+      <c r="E45" s="9">
+        <v>615000</v>
       </c>
       <c r="F45" s="9">
-        <v>615000</v>
+        <v>1017519</v>
       </c>
       <c r="G45" s="9">
-        <v>1017519</v>
+        <v>964000</v>
       </c>
       <c r="H45" s="9">
-        <v>964000</v>
+        <v>893</v>
       </c>
       <c r="I45" s="9">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>774231</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>25</v>
       </c>
@@ -1519,23 +1516,23 @@
         <v>24</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="11">
+      <c r="E46" s="11">
         <v>607</v>
       </c>
-      <c r="G46" s="11" t="s">
-        <v>17</v>
+      <c r="F46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1386000</v>
       </c>
       <c r="H46" s="11">
-        <v>1386000</v>
+        <v>1541</v>
       </c>
       <c r="I46" s="11">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1707064</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>26</v>
       </c>
@@ -1543,23 +1540,23 @@
         <v>24</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="9">
+      <c r="E47" s="9">
         <v>284000</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>17</v>
+      <c r="F47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="9">
+        <v>465000</v>
       </c>
       <c r="H47" s="9">
-        <v>465000</v>
+        <v>760</v>
       </c>
       <c r="I47" s="9">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>786161</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>27</v>
       </c>
@@ -1567,23 +1564,23 @@
         <v>24</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>17</v>
+      <c r="E48" s="11">
+        <v>3437000</v>
       </c>
       <c r="F48" s="11">
-        <v>3437000</v>
+        <v>5287082</v>
       </c>
       <c r="G48" s="11">
-        <v>5287082</v>
+        <v>6726000</v>
       </c>
       <c r="H48" s="11">
-        <v>6726000</v>
+        <v>9892</v>
       </c>
       <c r="I48" s="11">
-        <v>9892</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9347770</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>28</v>
       </c>
@@ -1591,23 +1588,23 @@
         <v>24</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>17</v>
+      <c r="E49" s="9">
+        <v>28232000</v>
       </c>
       <c r="F49" s="9">
-        <v>28232000</v>
+        <v>45215857</v>
       </c>
       <c r="G49" s="9">
-        <v>45215857</v>
+        <v>42204000</v>
       </c>
       <c r="H49" s="9">
-        <v>42204000</v>
+        <v>46913</v>
       </c>
       <c r="I49" s="9">
-        <v>46913</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>53243134</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>29</v>
       </c>
@@ -1615,23 +1612,23 @@
         <v>24</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>17</v>
+      <c r="E50" s="11">
+        <v>2584000</v>
       </c>
       <c r="F50" s="11">
-        <v>2584000</v>
+        <v>1467203</v>
       </c>
       <c r="G50" s="11">
-        <v>1467203</v>
+        <v>2177000</v>
       </c>
       <c r="H50" s="11">
-        <v>2177000</v>
+        <v>2731</v>
       </c>
       <c r="I50" s="11">
-        <v>2731</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2443561</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>30</v>
       </c>
@@ -1639,23 +1636,23 @@
         <v>24</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>17</v>
+      <c r="E51" s="9">
+        <v>5086000</v>
       </c>
       <c r="F51" s="9">
-        <v>5086000</v>
+        <v>5462203</v>
       </c>
       <c r="G51" s="9">
-        <v>5462203</v>
+        <v>9072000</v>
       </c>
       <c r="H51" s="9">
-        <v>9072000</v>
+        <v>11253</v>
       </c>
       <c r="I51" s="9">
-        <v>11253</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8702027</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>31</v>
       </c>
@@ -1669,17 +1666,17 @@
       <c r="F52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>17</v>
+      <c r="G52" s="11">
+        <v>1112000</v>
       </c>
       <c r="H52" s="11">
-        <v>1112000</v>
+        <v>557</v>
       </c>
       <c r="I52" s="11">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1338299</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>32</v>
       </c>
@@ -1687,23 +1684,23 @@
         <v>24</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>17</v>
+      <c r="E53" s="9">
+        <v>1943000</v>
       </c>
       <c r="F53" s="9">
-        <v>1943000</v>
+        <v>3279859</v>
       </c>
       <c r="G53" s="9">
-        <v>3279859</v>
+        <v>2068000</v>
       </c>
       <c r="H53" s="9">
-        <v>2068000</v>
+        <v>4327</v>
       </c>
       <c r="I53" s="9">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2683821</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>33</v>
       </c>
@@ -1714,20 +1711,20 @@
       <c r="E54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>17</v>
+      <c r="F54" s="11">
+        <v>1072414</v>
       </c>
       <c r="G54" s="11">
-        <v>1072414</v>
+        <v>947000</v>
       </c>
       <c r="H54" s="11">
-        <v>947000</v>
+        <v>667</v>
       </c>
       <c r="I54" s="11">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1677840</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>34</v>
       </c>
@@ -1735,23 +1732,23 @@
         <v>24</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>17</v>
+      <c r="E55" s="9">
+        <v>4519000</v>
       </c>
       <c r="F55" s="9">
-        <v>4519000</v>
+        <v>4520721</v>
       </c>
       <c r="G55" s="9">
-        <v>4520721</v>
+        <v>4676000</v>
       </c>
       <c r="H55" s="9">
-        <v>4676000</v>
+        <v>4976</v>
       </c>
       <c r="I55" s="9">
-        <v>4976</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6726710</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>35</v>
       </c>
@@ -1759,8 +1756,8 @@
         <v>36</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>17</v>
+      <c r="E56" s="11">
+        <v>0</v>
       </c>
       <c r="F56" s="11">
         <v>0</v>
@@ -1769,35 +1766,35 @@
         <v>0</v>
       </c>
       <c r="H56" s="11">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="I56" s="11">
         <v>1000000</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>0</v>
+        <v>46700607</v>
       </c>
       <c r="F57" s="15">
-        <v>46700607</v>
+        <v>67322858</v>
       </c>
       <c r="G57" s="15">
-        <v>67322858</v>
+        <v>71797000</v>
       </c>
       <c r="H57" s="15">
-        <v>71797000</v>
+        <v>1084510</v>
       </c>
       <c r="I57" s="15">
-        <v>1084510</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>90430618</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1807,7 +1804,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1817,7 +1814,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1827,7 +1824,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>39</v>
       </c>
@@ -1849,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1859,7 +1856,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>23</v>
       </c>
@@ -1867,23 +1864,23 @@
         <v>24</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
-        <v>17</v>
+      <c r="E63" s="9">
+        <v>607000</v>
       </c>
       <c r="F63" s="9">
-        <v>607000</v>
+        <v>1035263</v>
       </c>
       <c r="G63" s="9">
-        <v>1035263</v>
+        <v>869000</v>
       </c>
       <c r="H63" s="9">
-        <v>869000</v>
+        <v>948</v>
       </c>
       <c r="I63" s="9">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>759777</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>25</v>
       </c>
@@ -1891,23 +1888,23 @@
         <v>24</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="11">
+      <c r="E64" s="11">
         <v>567</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>17</v>
+      <c r="F64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="11">
+        <v>1317000</v>
       </c>
       <c r="H64" s="11">
-        <v>1317000</v>
+        <v>1579</v>
       </c>
       <c r="I64" s="11">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1706408</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>26</v>
       </c>
@@ -1915,23 +1912,23 @@
         <v>24</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="E65" s="9">
         <v>300000</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>17</v>
+      <c r="F65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="9">
+        <v>464000</v>
       </c>
       <c r="H65" s="9">
-        <v>464000</v>
+        <v>753</v>
       </c>
       <c r="I65" s="9">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>758289</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
@@ -1939,23 +1936,23 @@
         <v>24</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>17</v>
+      <c r="E66" s="11">
+        <v>4226000</v>
       </c>
       <c r="F66" s="11">
-        <v>4226000</v>
+        <v>5389128</v>
       </c>
       <c r="G66" s="11">
-        <v>5389128</v>
+        <v>6290000</v>
       </c>
       <c r="H66" s="11">
-        <v>6290000</v>
+        <v>8437</v>
       </c>
       <c r="I66" s="11">
-        <v>8437</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9608838</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>28</v>
       </c>
@@ -1963,23 +1960,23 @@
         <v>24</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>17</v>
+      <c r="E67" s="9">
+        <v>36701000</v>
       </c>
       <c r="F67" s="9">
-        <v>36701000</v>
+        <v>38734007</v>
       </c>
       <c r="G67" s="9">
-        <v>38734007</v>
+        <v>42358000</v>
       </c>
       <c r="H67" s="9">
-        <v>42358000</v>
+        <v>39282</v>
       </c>
       <c r="I67" s="9">
-        <v>39282</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59043693</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>29</v>
       </c>
@@ -1987,23 +1984,23 @@
         <v>24</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>17</v>
+      <c r="E68" s="11">
+        <v>2591000</v>
       </c>
       <c r="F68" s="11">
-        <v>2591000</v>
+        <v>2064456</v>
       </c>
       <c r="G68" s="11">
-        <v>2064456</v>
+        <v>1627000</v>
       </c>
       <c r="H68" s="11">
-        <v>1627000</v>
+        <v>3329</v>
       </c>
       <c r="I68" s="11">
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2458331</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>30</v>
       </c>
@@ -2011,23 +2008,23 @@
         <v>24</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>17</v>
+      <c r="E69" s="9">
+        <v>5339000</v>
       </c>
       <c r="F69" s="9">
-        <v>5339000</v>
+        <v>5289037</v>
       </c>
       <c r="G69" s="9">
-        <v>5289037</v>
+        <v>8401000</v>
       </c>
       <c r="H69" s="9">
-        <v>8401000</v>
+        <v>11290</v>
       </c>
       <c r="I69" s="9">
-        <v>11290</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8989652</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>31</v>
       </c>
@@ -2041,17 +2038,17 @@
       <c r="F70" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="11" t="s">
-        <v>17</v>
+      <c r="G70" s="11">
+        <v>1034000</v>
       </c>
       <c r="H70" s="11">
-        <v>1034000</v>
+        <v>1172</v>
       </c>
       <c r="I70" s="11">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1299083</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>32</v>
       </c>
@@ -2059,23 +2056,23 @@
         <v>24</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>17</v>
+      <c r="E71" s="9">
+        <v>2096000</v>
       </c>
       <c r="F71" s="9">
-        <v>2096000</v>
+        <v>2583832</v>
       </c>
       <c r="G71" s="9">
-        <v>2583832</v>
+        <v>2423000</v>
       </c>
       <c r="H71" s="9">
-        <v>2423000</v>
+        <v>4112</v>
       </c>
       <c r="I71" s="9">
-        <v>4112</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3200402</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>33</v>
       </c>
@@ -2086,20 +2083,20 @@
       <c r="E72" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>17</v>
+      <c r="F72" s="11">
+        <v>1035356</v>
       </c>
       <c r="G72" s="11">
-        <v>1035356</v>
+        <v>937000</v>
       </c>
       <c r="H72" s="11">
-        <v>937000</v>
+        <v>658</v>
       </c>
       <c r="I72" s="11">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1671219</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>34</v>
       </c>
@@ -2107,23 +2104,23 @@
         <v>24</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>17</v>
+      <c r="E73" s="9">
+        <v>3085646</v>
       </c>
       <c r="F73" s="9">
-        <v>3085646</v>
+        <v>5022141</v>
       </c>
       <c r="G73" s="9">
-        <v>5022141</v>
+        <v>4741000</v>
       </c>
       <c r="H73" s="9">
-        <v>4741000</v>
+        <v>4817</v>
       </c>
       <c r="I73" s="9">
-        <v>4817</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6957781</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>35</v>
       </c>
@@ -2131,8 +2128,8 @@
         <v>36</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>17</v>
+      <c r="E74" s="11">
+        <v>0</v>
       </c>
       <c r="F74" s="11">
         <v>0</v>
@@ -2141,35 +2138,35 @@
         <v>0</v>
       </c>
       <c r="H74" s="11">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="I74" s="11">
         <v>1000000</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15">
-        <v>0</v>
+        <v>54946213</v>
       </c>
       <c r="F75" s="15">
-        <v>54946213</v>
+        <v>61153220</v>
       </c>
       <c r="G75" s="15">
-        <v>61153220</v>
+        <v>70461000</v>
       </c>
       <c r="H75" s="15">
-        <v>70461000</v>
+        <v>1076377</v>
       </c>
       <c r="I75" s="15">
-        <v>1076377</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>97453473</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2179,7 +2176,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2189,7 +2186,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2199,7 +2196,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>40</v>
       </c>
@@ -2221,7 +2218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2231,7 +2228,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>23</v>
       </c>
@@ -2239,23 +2236,23 @@
         <v>24</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>17</v>
+      <c r="E81" s="9">
+        <v>46000</v>
       </c>
       <c r="F81" s="9">
-        <v>46000</v>
+        <v>29000</v>
       </c>
       <c r="G81" s="9">
-        <v>29000</v>
+        <v>124000</v>
       </c>
       <c r="H81" s="9">
-        <v>124000</v>
+        <v>69</v>
       </c>
       <c r="I81" s="9">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>83387</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>25</v>
       </c>
@@ -2263,23 +2260,23 @@
         <v>24</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="11">
+      <c r="E82" s="11">
         <v>43</v>
       </c>
-      <c r="G82" s="11" t="s">
-        <v>17</v>
+      <c r="F82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="11">
+        <v>134000</v>
       </c>
       <c r="H82" s="11">
-        <v>134000</v>
+        <v>96</v>
       </c>
       <c r="I82" s="11">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>96525</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>26</v>
       </c>
@@ -2287,23 +2284,23 @@
         <v>24</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="9">
+      <c r="E83" s="9">
         <v>25000</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>17</v>
+      <c r="F83" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="9">
+        <v>21000</v>
       </c>
       <c r="H83" s="9">
-        <v>21000</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>72679</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
@@ -2311,23 +2308,23 @@
         <v>24</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>17</v>
+      <c r="E84" s="11">
+        <v>586000</v>
       </c>
       <c r="F84" s="11">
-        <v>586000</v>
+        <v>484000</v>
       </c>
       <c r="G84" s="11">
-        <v>484000</v>
+        <v>920000</v>
       </c>
       <c r="H84" s="11">
-        <v>920000</v>
+        <v>2375</v>
       </c>
       <c r="I84" s="11">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2114521</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>28</v>
       </c>
@@ -2335,23 +2332,23 @@
         <v>24</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>17</v>
+      <c r="E85" s="9">
+        <v>10944000</v>
       </c>
       <c r="F85" s="9">
-        <v>10944000</v>
+        <v>17425933</v>
       </c>
       <c r="G85" s="9">
-        <v>17425933</v>
+        <v>17270000</v>
       </c>
       <c r="H85" s="9">
-        <v>17270000</v>
+        <v>24901</v>
       </c>
       <c r="I85" s="9">
-        <v>24901</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19100658</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>29</v>
       </c>
@@ -2359,23 +2356,23 @@
         <v>24</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>17</v>
+      <c r="E86" s="11">
+        <v>1066000</v>
       </c>
       <c r="F86" s="11">
-        <v>1066000</v>
+        <v>468000</v>
       </c>
       <c r="G86" s="11">
-        <v>468000</v>
+        <v>1018000</v>
       </c>
       <c r="H86" s="11">
-        <v>1018000</v>
+        <v>420</v>
       </c>
       <c r="I86" s="11">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>405391</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>30</v>
       </c>
@@ -2383,23 +2380,23 @@
         <v>24</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>17</v>
+      <c r="E87" s="9">
+        <v>204000</v>
       </c>
       <c r="F87" s="9">
-        <v>204000</v>
+        <v>377000</v>
       </c>
       <c r="G87" s="9">
-        <v>377000</v>
+        <v>1048000</v>
       </c>
       <c r="H87" s="9">
-        <v>1048000</v>
+        <v>1011</v>
       </c>
       <c r="I87" s="9">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>723853</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>31</v>
       </c>
@@ -2413,17 +2410,17 @@
       <c r="F88" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G88" s="11" t="s">
-        <v>17</v>
+      <c r="G88" s="11">
+        <v>785000</v>
       </c>
       <c r="H88" s="11">
-        <v>785000</v>
+        <v>170</v>
       </c>
       <c r="I88" s="11">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>209225</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>32</v>
       </c>
@@ -2431,23 +2428,23 @@
         <v>24</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>17</v>
+      <c r="E89" s="9">
+        <v>61000</v>
       </c>
       <c r="F89" s="9">
-        <v>61000</v>
+        <v>757000</v>
       </c>
       <c r="G89" s="9">
-        <v>757000</v>
+        <v>402000</v>
       </c>
       <c r="H89" s="9">
-        <v>402000</v>
+        <v>617</v>
       </c>
       <c r="I89" s="9">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100407</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>33</v>
       </c>
@@ -2458,20 +2455,20 @@
       <c r="E90" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>17</v>
+      <c r="F90" s="11">
+        <v>92000</v>
       </c>
       <c r="G90" s="11">
-        <v>92000</v>
+        <v>102000</v>
       </c>
       <c r="H90" s="11">
-        <v>102000</v>
+        <v>111</v>
       </c>
       <c r="I90" s="11">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>118171</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>34</v>
       </c>
@@ -2479,23 +2476,23 @@
         <v>24</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>17</v>
+      <c r="E91" s="9">
+        <v>1433354</v>
       </c>
       <c r="F91" s="9">
-        <v>1433354</v>
+        <v>287000</v>
       </c>
       <c r="G91" s="9">
-        <v>287000</v>
+        <v>222000</v>
       </c>
       <c r="H91" s="9">
-        <v>222000</v>
+        <v>381</v>
       </c>
       <c r="I91" s="9">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>149486</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>35</v>
       </c>
@@ -2503,8 +2500,8 @@
         <v>36</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>17</v>
+      <c r="E92" s="11">
+        <v>0</v>
       </c>
       <c r="F92" s="11">
         <v>0</v>
@@ -2513,35 +2510,35 @@
         <v>0</v>
       </c>
       <c r="H92" s="11">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="I92" s="11">
         <v>1000000</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>0</v>
+        <v>14365397</v>
       </c>
       <c r="F93" s="15">
-        <v>14365397</v>
+        <v>19919933</v>
       </c>
       <c r="G93" s="15">
-        <v>19919933</v>
+        <v>22046000</v>
       </c>
       <c r="H93" s="15">
-        <v>22046000</v>
+        <v>1030196</v>
       </c>
       <c r="I93" s="15">
-        <v>1030196</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24174303</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2551,7 +2548,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2561,7 +2558,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2571,7 +2568,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>41</v>
       </c>
@@ -2593,7 +2590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2603,7 +2600,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>23</v>
       </c>
@@ -2611,23 +2608,23 @@
         <v>42</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>17</v>
+      <c r="E99" s="9">
+        <v>948</v>
       </c>
       <c r="F99" s="9">
-        <v>948</v>
+        <v>1832</v>
       </c>
       <c r="G99" s="9">
-        <v>1832</v>
+        <v>1013</v>
       </c>
       <c r="H99" s="9">
-        <v>1013</v>
+        <v>19246</v>
       </c>
       <c r="I99" s="9">
-        <v>19246</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9503</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>25</v>
       </c>
@@ -2635,23 +2632,23 @@
         <v>42</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" s="11">
+      <c r="E100" s="11">
         <v>44</v>
       </c>
-      <c r="G100" s="11" t="s">
-        <v>17</v>
+      <c r="F100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="11">
+        <v>1938</v>
       </c>
       <c r="H100" s="11">
-        <v>1938</v>
+        <v>14391</v>
       </c>
       <c r="I100" s="11">
-        <v>14391</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12386</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>26</v>
       </c>
@@ -2659,23 +2656,23 @@
         <v>42</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" s="9">
+      <c r="E101" s="9">
         <v>1799</v>
       </c>
-      <c r="G101" s="9" t="s">
-        <v>17</v>
+      <c r="F101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1958</v>
       </c>
       <c r="H101" s="9">
-        <v>1958</v>
+        <v>8605</v>
       </c>
       <c r="I101" s="9">
-        <v>8605</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16818</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>27</v>
       </c>
@@ -2683,23 +2680,23 @@
         <v>42</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11" t="s">
-        <v>17</v>
+      <c r="E102" s="11">
+        <v>18507</v>
       </c>
       <c r="F102" s="11">
-        <v>18507</v>
+        <v>9345</v>
       </c>
       <c r="G102" s="11">
-        <v>9345</v>
+        <v>10315</v>
       </c>
       <c r="H102" s="11">
-        <v>10315</v>
+        <v>28152</v>
       </c>
       <c r="I102" s="11">
-        <v>28152</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>118053</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>28</v>
       </c>
@@ -2707,23 +2704,23 @@
         <v>42</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>17</v>
+      <c r="E103" s="9">
+        <v>42351</v>
       </c>
       <c r="F103" s="9">
-        <v>42351</v>
+        <v>33495</v>
       </c>
       <c r="G103" s="9">
-        <v>33495</v>
+        <v>88274</v>
       </c>
       <c r="H103" s="9">
-        <v>88274</v>
+        <v>131451</v>
       </c>
       <c r="I103" s="9">
-        <v>131451</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>360296</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>29</v>
       </c>
@@ -2731,23 +2728,23 @@
         <v>42</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
-        <v>17</v>
+      <c r="E104" s="11">
+        <v>9214</v>
       </c>
       <c r="F104" s="11">
-        <v>9214</v>
+        <v>17769</v>
       </c>
       <c r="G104" s="11">
-        <v>17769</v>
+        <v>11968</v>
       </c>
       <c r="H104" s="11">
-        <v>11968</v>
+        <v>31843</v>
       </c>
       <c r="I104" s="11">
-        <v>31843</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24139</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>30</v>
       </c>
@@ -2755,23 +2752,23 @@
         <v>42</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
-        <v>17</v>
+      <c r="E105" s="9">
+        <v>4776</v>
       </c>
       <c r="F105" s="9">
-        <v>4776</v>
+        <v>2993</v>
       </c>
       <c r="G105" s="9">
-        <v>2993</v>
+        <v>5793</v>
       </c>
       <c r="H105" s="9">
-        <v>5793</v>
+        <v>29189</v>
       </c>
       <c r="I105" s="9">
-        <v>29189</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37270</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>31</v>
       </c>
@@ -2785,17 +2782,17 @@
       <c r="F106" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G106" s="11" t="s">
-        <v>17</v>
+      <c r="G106" s="11">
+        <v>23133</v>
       </c>
       <c r="H106" s="11">
-        <v>23133</v>
+        <v>60008</v>
       </c>
       <c r="I106" s="11">
-        <v>60008</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22183</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>32</v>
       </c>
@@ -2803,23 +2800,23 @@
         <v>42</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>17</v>
+      <c r="E107" s="9">
+        <v>4445</v>
       </c>
       <c r="F107" s="9">
-        <v>4445</v>
+        <v>1592</v>
       </c>
       <c r="G107" s="9">
-        <v>1592</v>
+        <v>19646</v>
       </c>
       <c r="H107" s="9">
-        <v>19646</v>
+        <v>15628</v>
       </c>
       <c r="I107" s="9">
-        <v>15628</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28565</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>33</v>
       </c>
@@ -2830,20 +2827,20 @@
       <c r="E108" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F108" s="11" t="s">
-        <v>17</v>
+      <c r="F108" s="11">
+        <v>1609</v>
       </c>
       <c r="G108" s="11">
-        <v>1609</v>
+        <v>1666</v>
       </c>
       <c r="H108" s="11">
-        <v>1666</v>
+        <v>10147</v>
       </c>
       <c r="I108" s="11">
-        <v>10147</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12618</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>34</v>
       </c>
@@ -2851,23 +2848,23 @@
         <v>42</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>17</v>
+      <c r="E109" s="9">
+        <v>0</v>
       </c>
       <c r="F109" s="9">
-        <v>0</v>
+        <v>10445</v>
       </c>
       <c r="G109" s="9">
-        <v>10445</v>
+        <v>4187</v>
       </c>
       <c r="H109" s="9">
-        <v>4187</v>
+        <v>4733</v>
       </c>
       <c r="I109" s="9">
-        <v>4733</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12373</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>35</v>
       </c>
@@ -2875,45 +2872,45 @@
         <v>42</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>17</v>
+      <c r="E110" s="11">
+        <v>24856</v>
       </c>
       <c r="F110" s="11">
-        <v>24856</v>
+        <v>25330</v>
       </c>
       <c r="G110" s="11">
-        <v>25330</v>
+        <v>27642</v>
       </c>
       <c r="H110" s="11">
-        <v>27642</v>
+        <v>111270</v>
       </c>
       <c r="I110" s="11">
-        <v>111270</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>135108</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
-        <v>0</v>
+        <v>106940</v>
       </c>
       <c r="F111" s="15">
-        <v>106940</v>
+        <v>104410</v>
       </c>
       <c r="G111" s="15">
-        <v>104410</v>
+        <v>197533</v>
       </c>
       <c r="H111" s="15">
-        <v>197533</v>
+        <v>464663</v>
       </c>
       <c r="I111" s="15">
-        <v>464663</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>789312</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2923,7 +2920,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2933,7 +2930,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2943,7 +2940,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>43</v>
       </c>
@@ -2965,7 +2962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2975,7 +2972,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>23</v>
       </c>
@@ -2983,23 +2980,23 @@
         <v>42</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>17</v>
+      <c r="E117" s="9">
+        <v>20333</v>
       </c>
       <c r="F117" s="9">
-        <v>20333</v>
+        <v>36235</v>
       </c>
       <c r="G117" s="9">
-        <v>36235</v>
+        <v>94325</v>
       </c>
       <c r="H117" s="9">
-        <v>94325</v>
+        <v>113772</v>
       </c>
       <c r="I117" s="9">
-        <v>113772</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>198397</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>25</v>
       </c>
@@ -3007,23 +3004,23 @@
         <v>42</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" s="11">
+      <c r="E118" s="11">
         <v>12076</v>
       </c>
-      <c r="G118" s="11" t="s">
-        <v>17</v>
+      <c r="F118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="11">
+        <v>121111</v>
       </c>
       <c r="H118" s="11">
-        <v>121111</v>
+        <v>163820</v>
       </c>
       <c r="I118" s="11">
-        <v>163820</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>322891</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>26</v>
       </c>
@@ -3031,23 +3028,23 @@
         <v>42</v>
       </c>
       <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119" s="9">
+      <c r="E119" s="9">
         <v>19799</v>
       </c>
-      <c r="G119" s="9" t="s">
-        <v>17</v>
+      <c r="F119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" s="9">
+        <v>83333</v>
       </c>
       <c r="H119" s="9">
-        <v>83333</v>
+        <v>224287</v>
       </c>
       <c r="I119" s="9">
-        <v>224287</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>496814</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>27</v>
       </c>
@@ -3055,23 +3052,23 @@
         <v>42</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>17</v>
+      <c r="E120" s="11">
+        <v>49308</v>
       </c>
       <c r="F120" s="11">
-        <v>49308</v>
+        <v>105149</v>
       </c>
       <c r="G120" s="11">
-        <v>105149</v>
+        <v>174324</v>
       </c>
       <c r="H120" s="11">
-        <v>174324</v>
+        <v>490851</v>
       </c>
       <c r="I120" s="11">
-        <v>490851</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>659298</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>28</v>
       </c>
@@ -3079,23 +3076,23 @@
         <v>42</v>
       </c>
       <c r="D121" s="9"/>
-      <c r="E121" s="9" t="s">
-        <v>17</v>
+      <c r="E121" s="9">
+        <v>85549</v>
       </c>
       <c r="F121" s="9">
-        <v>85549</v>
+        <v>229133</v>
       </c>
       <c r="G121" s="9">
-        <v>229133</v>
+        <v>305669</v>
       </c>
       <c r="H121" s="9">
-        <v>305669</v>
+        <v>715700</v>
       </c>
       <c r="I121" s="9">
-        <v>715700</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>930956</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>29</v>
       </c>
@@ -3103,23 +3100,23 @@
         <v>42</v>
       </c>
       <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
-        <v>17</v>
+      <c r="E122" s="11">
+        <v>39257</v>
       </c>
       <c r="F122" s="11">
-        <v>39257</v>
+        <v>37238</v>
       </c>
       <c r="G122" s="11">
-        <v>37238</v>
+        <v>66885</v>
       </c>
       <c r="H122" s="11">
-        <v>66885</v>
+        <v>143426</v>
       </c>
       <c r="I122" s="11">
-        <v>143426</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>207822</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>30</v>
       </c>
@@ -3127,23 +3124,23 @@
         <v>42</v>
       </c>
       <c r="D123" s="9"/>
-      <c r="E123" s="9" t="s">
-        <v>17</v>
+      <c r="E123" s="9">
+        <v>66227</v>
       </c>
       <c r="F123" s="9">
-        <v>66227</v>
+        <v>85060</v>
       </c>
       <c r="G123" s="9">
-        <v>85060</v>
+        <v>238341</v>
       </c>
       <c r="H123" s="9">
-        <v>238341</v>
+        <v>415349</v>
       </c>
       <c r="I123" s="9">
-        <v>415349</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>960086</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>31</v>
       </c>
@@ -3157,17 +3154,17 @@
       <c r="F124" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G124" s="11" t="s">
-        <v>17</v>
+      <c r="G124" s="11">
+        <v>94361</v>
       </c>
       <c r="H124" s="11">
-        <v>94361</v>
+        <v>61507</v>
       </c>
       <c r="I124" s="11">
-        <v>61507</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>191821</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>32</v>
       </c>
@@ -3175,23 +3172,23 @@
         <v>42</v>
       </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
-        <v>17</v>
+      <c r="E125" s="9">
+        <v>48333</v>
       </c>
       <c r="F125" s="9">
-        <v>48333</v>
+        <v>85665</v>
       </c>
       <c r="G125" s="9">
-        <v>85665</v>
+        <v>90662</v>
       </c>
       <c r="H125" s="9">
-        <v>90662</v>
+        <v>194923</v>
       </c>
       <c r="I125" s="9">
-        <v>194923</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>443974</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>33</v>
       </c>
@@ -3202,20 +3199,20 @@
       <c r="E126" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F126" s="11" t="s">
-        <v>17</v>
+      <c r="F126" s="11">
+        <v>24251</v>
       </c>
       <c r="G126" s="11">
-        <v>24251</v>
+        <v>55560</v>
       </c>
       <c r="H126" s="11">
-        <v>55560</v>
+        <v>60076</v>
       </c>
       <c r="I126" s="11">
-        <v>60076</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>224748</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>34</v>
       </c>
@@ -3223,23 +3220,23 @@
         <v>42</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
-        <v>17</v>
+      <c r="E127" s="9">
+        <v>55760</v>
       </c>
       <c r="F127" s="9">
-        <v>55760</v>
+        <v>67542</v>
       </c>
       <c r="G127" s="9">
-        <v>67542</v>
+        <v>102519</v>
       </c>
       <c r="H127" s="9">
-        <v>102519</v>
+        <v>172768</v>
       </c>
       <c r="I127" s="9">
-        <v>172768</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>687483</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>35</v>
       </c>
@@ -3247,45 +3244,45 @@
         <v>42</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>17</v>
+      <c r="E128" s="11">
+        <v>119484</v>
       </c>
       <c r="F128" s="11">
-        <v>119484</v>
+        <v>215545</v>
       </c>
       <c r="G128" s="11">
-        <v>215545</v>
+        <v>195042</v>
       </c>
       <c r="H128" s="11">
-        <v>195042</v>
+        <v>220515</v>
       </c>
       <c r="I128" s="11">
-        <v>220515</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1054413</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15">
-        <v>0</v>
+        <v>516126</v>
       </c>
       <c r="F129" s="15">
-        <v>516126</v>
+        <v>885818</v>
       </c>
       <c r="G129" s="15">
-        <v>885818</v>
+        <v>1622132</v>
       </c>
       <c r="H129" s="15">
-        <v>1622132</v>
+        <v>2976994</v>
       </c>
       <c r="I129" s="15">
-        <v>2976994</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6378703</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3295,7 +3292,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3305,7 +3302,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3315,7 +3312,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>44</v>
       </c>
@@ -3337,7 +3334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3347,7 +3344,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>23</v>
       </c>
@@ -3355,23 +3352,23 @@
         <v>42</v>
       </c>
       <c r="D135" s="9"/>
-      <c r="E135" s="9" t="s">
-        <v>17</v>
+      <c r="E135" s="9">
+        <v>19446</v>
       </c>
       <c r="F135" s="9">
-        <v>19446</v>
+        <v>37054</v>
       </c>
       <c r="G135" s="9">
-        <v>37054</v>
+        <v>76092</v>
       </c>
       <c r="H135" s="9">
-        <v>76092</v>
+        <v>123515</v>
       </c>
       <c r="I135" s="9">
-        <v>123515</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>184026</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>25</v>
       </c>
@@ -3379,23 +3376,23 @@
         <v>42</v>
       </c>
       <c r="D136" s="11"/>
-      <c r="E136" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F136" s="11">
+      <c r="E136" s="11">
         <v>10992</v>
       </c>
-      <c r="G136" s="11" t="s">
-        <v>17</v>
+      <c r="F136" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" s="11">
+        <v>108658</v>
       </c>
       <c r="H136" s="11">
-        <v>108658</v>
+        <v>165825</v>
       </c>
       <c r="I136" s="11">
-        <v>165825</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>311866</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>26</v>
       </c>
@@ -3403,23 +3400,23 @@
         <v>42</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" s="9">
+      <c r="E137" s="9">
         <v>19147</v>
       </c>
-      <c r="G137" s="9" t="s">
-        <v>17</v>
+      <c r="F137" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" s="9">
+        <v>82107</v>
       </c>
       <c r="H137" s="9">
-        <v>82107</v>
+        <v>216075</v>
       </c>
       <c r="I137" s="9">
-        <v>216075</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>464470</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>27</v>
       </c>
@@ -3427,23 +3424,23 @@
         <v>42</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
-        <v>17</v>
+      <c r="E138" s="11">
+        <v>58471</v>
       </c>
       <c r="F138" s="11">
-        <v>58471</v>
+        <v>104179</v>
       </c>
       <c r="G138" s="11">
-        <v>104179</v>
+        <v>156487</v>
       </c>
       <c r="H138" s="11">
-        <v>156487</v>
+        <v>400951</v>
       </c>
       <c r="I138" s="11">
-        <v>400951</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>631916</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>28</v>
       </c>
@@ -3451,23 +3448,23 @@
         <v>42</v>
       </c>
       <c r="D139" s="9"/>
-      <c r="E139" s="9" t="s">
-        <v>17</v>
+      <c r="E139" s="9">
+        <v>94409</v>
       </c>
       <c r="F139" s="9">
-        <v>94409</v>
+        <v>174354</v>
       </c>
       <c r="G139" s="9">
-        <v>174354</v>
+        <v>262492</v>
       </c>
       <c r="H139" s="9">
-        <v>262492</v>
+        <v>486851</v>
       </c>
       <c r="I139" s="9">
-        <v>486851</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>971282</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>29</v>
       </c>
@@ -3475,23 +3472,23 @@
         <v>42</v>
       </c>
       <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
-        <v>17</v>
+      <c r="E140" s="11">
+        <v>30703</v>
       </c>
       <c r="F140" s="11">
-        <v>30703</v>
+        <v>43039</v>
       </c>
       <c r="G140" s="11">
-        <v>43039</v>
+        <v>47010</v>
       </c>
       <c r="H140" s="11">
-        <v>47010</v>
+        <v>151130</v>
       </c>
       <c r="I140" s="11">
-        <v>151130</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>196812</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>30</v>
       </c>
@@ -3499,23 +3496,23 @@
         <v>42</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
-        <v>17</v>
+      <c r="E141" s="9">
+        <v>68010</v>
       </c>
       <c r="F141" s="9">
-        <v>68010</v>
+        <v>82260</v>
       </c>
       <c r="G141" s="9">
-        <v>82260</v>
+        <v>214945</v>
       </c>
       <c r="H141" s="9">
-        <v>214945</v>
+        <v>407268</v>
       </c>
       <c r="I141" s="9">
-        <v>407268</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>912861</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>31</v>
       </c>
@@ -3529,17 +3526,17 @@
       <c r="F142" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G142" s="11" t="s">
-        <v>17</v>
+      <c r="G142" s="11">
+        <v>57486</v>
       </c>
       <c r="H142" s="11">
-        <v>57486</v>
+        <v>99332</v>
       </c>
       <c r="I142" s="11">
-        <v>99332</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>182684</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>32</v>
       </c>
@@ -3547,23 +3544,23 @@
         <v>42</v>
       </c>
       <c r="D143" s="9"/>
-      <c r="E143" s="9" t="s">
-        <v>17</v>
+      <c r="E143" s="9">
+        <v>51186</v>
       </c>
       <c r="F143" s="9">
-        <v>51186</v>
+        <v>67611</v>
       </c>
       <c r="G143" s="9">
-        <v>67611</v>
+        <v>94680</v>
       </c>
       <c r="H143" s="9">
-        <v>94680</v>
+        <v>181986</v>
       </c>
       <c r="I143" s="9">
-        <v>181986</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+        <v>446075</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>33</v>
       </c>
@@ -3574,20 +3571,20 @@
       <c r="E144" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F144" s="11" t="s">
-        <v>17</v>
+      <c r="F144" s="11">
+        <v>24194</v>
       </c>
       <c r="G144" s="11">
-        <v>24194</v>
+        <v>47079</v>
       </c>
       <c r="H144" s="11">
-        <v>47079</v>
+        <v>57605</v>
       </c>
       <c r="I144" s="11">
-        <v>57605</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217966</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>34</v>
       </c>
@@ -3595,23 +3592,23 @@
         <v>42</v>
       </c>
       <c r="D145" s="9"/>
-      <c r="E145" s="9" t="s">
-        <v>17</v>
+      <c r="E145" s="9">
+        <v>45314</v>
       </c>
       <c r="F145" s="9">
-        <v>45314</v>
+        <v>73800</v>
       </c>
       <c r="G145" s="9">
-        <v>73800</v>
+        <v>101972</v>
       </c>
       <c r="H145" s="9">
-        <v>101972</v>
+        <v>165129</v>
       </c>
       <c r="I145" s="9">
-        <v>165129</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+        <v>688356</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>35</v>
       </c>
@@ -3619,45 +3616,45 @@
         <v>42</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>17</v>
+      <c r="E146" s="11">
+        <v>120978</v>
       </c>
       <c r="F146" s="11">
-        <v>120978</v>
+        <v>186205</v>
       </c>
       <c r="G146" s="11">
-        <v>186205</v>
+        <v>156087</v>
       </c>
       <c r="H146" s="11">
-        <v>156087</v>
+        <v>196677</v>
       </c>
       <c r="I146" s="11">
-        <v>196677</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>886250</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
       <c r="E147" s="15">
-        <v>0</v>
+        <v>518656</v>
       </c>
       <c r="F147" s="15">
-        <v>518656</v>
+        <v>792696</v>
       </c>
       <c r="G147" s="15">
-        <v>792696</v>
+        <v>1405095</v>
       </c>
       <c r="H147" s="15">
-        <v>1405095</v>
+        <v>2652344</v>
       </c>
       <c r="I147" s="15">
-        <v>2652344</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6094564</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3667,7 +3664,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3677,7 +3674,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3687,7 +3684,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
         <v>45</v>
       </c>
@@ -3709,7 +3706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3719,7 +3716,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>23</v>
       </c>
@@ -3727,23 +3724,23 @@
         <v>42</v>
       </c>
       <c r="D153" s="9"/>
-      <c r="E153" s="9" t="s">
-        <v>17</v>
+      <c r="E153" s="9">
+        <v>1835</v>
       </c>
       <c r="F153" s="9">
-        <v>1835</v>
+        <v>1013</v>
       </c>
       <c r="G153" s="9">
-        <v>1013</v>
+        <v>19246</v>
       </c>
       <c r="H153" s="9">
-        <v>19246</v>
+        <v>9503</v>
       </c>
       <c r="I153" s="9">
-        <v>9503</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23874</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>25</v>
       </c>
@@ -3751,23 +3748,23 @@
         <v>42</v>
       </c>
       <c r="D154" s="11"/>
-      <c r="E154" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F154" s="11">
+      <c r="E154" s="11">
         <v>1128</v>
       </c>
-      <c r="G154" s="11" t="s">
-        <v>17</v>
+      <c r="F154" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G154" s="11">
+        <v>14391</v>
       </c>
       <c r="H154" s="11">
-        <v>14391</v>
+        <v>12386</v>
       </c>
       <c r="I154" s="11">
-        <v>12386</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23411</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>26</v>
       </c>
@@ -3775,23 +3772,23 @@
         <v>42</v>
       </c>
       <c r="D155" s="9"/>
-      <c r="E155" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F155" s="9">
+      <c r="E155" s="9">
         <v>2451</v>
       </c>
-      <c r="G155" s="9" t="s">
-        <v>17</v>
+      <c r="F155" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" s="9">
+        <v>3184</v>
       </c>
       <c r="H155" s="9">
-        <v>3184</v>
+        <v>16817</v>
       </c>
       <c r="I155" s="9">
-        <v>16817</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49162</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>27</v>
       </c>
@@ -3799,23 +3796,23 @@
         <v>42</v>
       </c>
       <c r="D156" s="11"/>
-      <c r="E156" s="11" t="s">
-        <v>17</v>
+      <c r="E156" s="11">
+        <v>9344</v>
       </c>
       <c r="F156" s="11">
-        <v>9344</v>
+        <v>10315</v>
       </c>
       <c r="G156" s="11">
-        <v>10315</v>
+        <v>28152</v>
       </c>
       <c r="H156" s="11">
-        <v>28152</v>
+        <v>118052</v>
       </c>
       <c r="I156" s="11">
-        <v>118052</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>145435</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>28</v>
       </c>
@@ -3823,23 +3820,23 @@
         <v>42</v>
       </c>
       <c r="D157" s="9"/>
-      <c r="E157" s="9" t="s">
-        <v>17</v>
+      <c r="E157" s="9">
+        <v>33491</v>
       </c>
       <c r="F157" s="9">
-        <v>33491</v>
+        <v>88274</v>
       </c>
       <c r="G157" s="9">
-        <v>88274</v>
+        <v>131451</v>
       </c>
       <c r="H157" s="9">
-        <v>131451</v>
+        <v>360300</v>
       </c>
       <c r="I157" s="9">
-        <v>360300</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>319970</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>29</v>
       </c>
@@ -3847,23 +3844,23 @@
         <v>42</v>
       </c>
       <c r="D158" s="11"/>
-      <c r="E158" s="11" t="s">
-        <v>17</v>
+      <c r="E158" s="11">
+        <v>17768</v>
       </c>
       <c r="F158" s="11">
-        <v>17768</v>
+        <v>11968</v>
       </c>
       <c r="G158" s="11">
-        <v>11968</v>
+        <v>31843</v>
       </c>
       <c r="H158" s="11">
-        <v>31843</v>
+        <v>24139</v>
       </c>
       <c r="I158" s="11">
-        <v>24139</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35149</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>30</v>
       </c>
@@ -3871,23 +3868,23 @@
         <v>42</v>
       </c>
       <c r="D159" s="9"/>
-      <c r="E159" s="9" t="s">
-        <v>17</v>
+      <c r="E159" s="9">
+        <v>2993</v>
       </c>
       <c r="F159" s="9">
-        <v>2993</v>
+        <v>5793</v>
       </c>
       <c r="G159" s="9">
-        <v>5793</v>
+        <v>29189</v>
       </c>
       <c r="H159" s="9">
-        <v>29189</v>
+        <v>37270</v>
       </c>
       <c r="I159" s="9">
-        <v>37270</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>84495</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>31</v>
       </c>
@@ -3901,17 +3898,17 @@
       <c r="F160" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G160" s="11" t="s">
-        <v>17</v>
+      <c r="G160" s="11">
+        <v>60008</v>
       </c>
       <c r="H160" s="11">
-        <v>60008</v>
+        <v>22183</v>
       </c>
       <c r="I160" s="11">
-        <v>22183</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31320</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>32</v>
       </c>
@@ -3919,23 +3916,23 @@
         <v>42</v>
       </c>
       <c r="D161" s="9"/>
-      <c r="E161" s="9" t="s">
-        <v>17</v>
+      <c r="E161" s="9">
+        <v>1592</v>
       </c>
       <c r="F161" s="9">
-        <v>1592</v>
+        <v>19646</v>
       </c>
       <c r="G161" s="9">
-        <v>19646</v>
+        <v>15628</v>
       </c>
       <c r="H161" s="9">
-        <v>15628</v>
+        <v>28565</v>
       </c>
       <c r="I161" s="9">
-        <v>28565</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26464</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>33</v>
       </c>
@@ -3946,20 +3943,20 @@
       <c r="E162" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F162" s="11" t="s">
-        <v>17</v>
+      <c r="F162" s="11">
+        <v>1666</v>
       </c>
       <c r="G162" s="11">
-        <v>1666</v>
+        <v>10147</v>
       </c>
       <c r="H162" s="11">
-        <v>10147</v>
+        <v>12618</v>
       </c>
       <c r="I162" s="11">
-        <v>12618</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>34</v>
       </c>
@@ -3967,23 +3964,23 @@
         <v>42</v>
       </c>
       <c r="D163" s="9"/>
-      <c r="E163" s="9" t="s">
-        <v>17</v>
+      <c r="E163" s="9">
+        <v>10446</v>
       </c>
       <c r="F163" s="9">
-        <v>10446</v>
+        <v>4187</v>
       </c>
       <c r="G163" s="9">
-        <v>4187</v>
+        <v>4734</v>
       </c>
       <c r="H163" s="9">
-        <v>4734</v>
+        <v>12372</v>
       </c>
       <c r="I163" s="9">
-        <v>12372</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>35</v>
       </c>
@@ -3991,45 +3988,45 @@
         <v>42</v>
       </c>
       <c r="D164" s="11"/>
-      <c r="E164" s="11" t="s">
-        <v>17</v>
+      <c r="E164" s="11">
+        <v>23362</v>
       </c>
       <c r="F164" s="11">
-        <v>23362</v>
+        <v>54670</v>
       </c>
       <c r="G164" s="11">
-        <v>54670</v>
+        <v>66597</v>
       </c>
       <c r="H164" s="11">
-        <v>66597</v>
+        <v>135108</v>
       </c>
       <c r="I164" s="11">
-        <v>135108</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+        <v>303271</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="15">
-        <v>0</v>
+        <v>104410</v>
       </c>
       <c r="F165" s="15">
-        <v>104410</v>
+        <v>197532</v>
       </c>
       <c r="G165" s="15">
-        <v>197532</v>
+        <v>414570</v>
       </c>
       <c r="H165" s="15">
-        <v>414570</v>
+        <v>789313</v>
       </c>
       <c r="I165" s="15">
-        <v>789313</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1073451</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4039,7 +4036,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4049,7 +4046,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4059,7 +4056,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B169" s="7" t="s">
         <v>46</v>
       </c>
@@ -4081,7 +4078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4091,7 +4088,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>23</v>
       </c>
@@ -4099,23 +4096,23 @@
         <v>47</v>
       </c>
       <c r="D171" s="9"/>
-      <c r="E171" s="9" t="s">
-        <v>17</v>
+      <c r="E171" s="9">
+        <v>24947</v>
       </c>
       <c r="F171" s="9">
-        <v>24947</v>
+        <v>39192</v>
       </c>
       <c r="G171" s="9">
-        <v>39192</v>
+        <v>34931</v>
       </c>
       <c r="H171" s="9">
-        <v>34931</v>
+        <v>155209677</v>
       </c>
       <c r="I171" s="9">
-        <v>155209677</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+        <v>137859</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>25</v>
       </c>
@@ -4123,23 +4120,23 @@
         <v>47</v>
       </c>
       <c r="D172" s="11"/>
-      <c r="E172" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F172" s="11">
+      <c r="E172" s="11">
         <v>14666667</v>
       </c>
-      <c r="G172" s="11" t="s">
-        <v>17</v>
+      <c r="F172" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" s="11">
+        <v>29815</v>
       </c>
       <c r="H172" s="11">
-        <v>29815</v>
+        <v>107395522</v>
       </c>
       <c r="I172" s="11">
-        <v>107395522</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>129197</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>26</v>
       </c>
@@ -4147,23 +4144,23 @@
         <v>47</v>
       </c>
       <c r="D173" s="9"/>
-      <c r="E173" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F173" s="9">
+      <c r="E173" s="9">
         <v>43878</v>
       </c>
-      <c r="G173" s="9" t="s">
-        <v>17</v>
+      <c r="F173" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G173" s="9">
+        <v>97900</v>
       </c>
       <c r="H173" s="9">
-        <v>97900</v>
+        <v>226447368</v>
       </c>
       <c r="I173" s="9">
-        <v>226447368</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+        <v>375343</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>27</v>
       </c>
@@ -4171,23 +4168,23 @@
         <v>47</v>
       </c>
       <c r="D174" s="11"/>
-      <c r="E174" s="11" t="s">
-        <v>17</v>
+      <c r="E174" s="11">
+        <v>13460</v>
       </c>
       <c r="F174" s="11">
-        <v>13460</v>
+        <v>15946</v>
       </c>
       <c r="G174" s="11">
-        <v>15946</v>
+        <v>21312</v>
       </c>
       <c r="H174" s="11">
-        <v>21312</v>
+        <v>30600000</v>
       </c>
       <c r="I174" s="11">
-        <v>30600000</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49694</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>28</v>
       </c>
@@ -4195,23 +4192,23 @@
         <v>47</v>
       </c>
       <c r="D175" s="9"/>
-      <c r="E175" s="9" t="s">
-        <v>17</v>
+      <c r="E175" s="9">
+        <v>2182</v>
       </c>
       <c r="F175" s="9">
-        <v>2182</v>
+        <v>3061</v>
       </c>
       <c r="G175" s="9">
-        <v>3061</v>
+        <v>5066</v>
       </c>
       <c r="H175" s="9">
-        <v>5066</v>
+        <v>7611523</v>
       </c>
       <c r="I175" s="9">
-        <v>7611523</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14469</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>29</v>
       </c>
@@ -4219,23 +4216,23 @@
         <v>47</v>
       </c>
       <c r="D176" s="11"/>
-      <c r="E176" s="11" t="s">
-        <v>17</v>
+      <c r="E176" s="11">
+        <v>8587</v>
       </c>
       <c r="F176" s="11">
-        <v>8587</v>
+        <v>16681</v>
       </c>
       <c r="G176" s="11">
-        <v>16681</v>
+        <v>25573</v>
       </c>
       <c r="H176" s="11">
-        <v>25573</v>
+        <v>31279961</v>
       </c>
       <c r="I176" s="11">
-        <v>31279961</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+        <v>57452</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>30</v>
       </c>
@@ -4243,23 +4240,23 @@
         <v>47</v>
       </c>
       <c r="D177" s="9"/>
-      <c r="E177" s="9" t="s">
-        <v>17</v>
+      <c r="E177" s="9">
+        <v>10451</v>
       </c>
       <c r="F177" s="9">
-        <v>10451</v>
+        <v>14684</v>
       </c>
       <c r="G177" s="9">
-        <v>14684</v>
+        <v>15366</v>
       </c>
       <c r="H177" s="9">
-        <v>15366</v>
+        <v>27852099</v>
       </c>
       <c r="I177" s="9">
-        <v>27852099</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36847</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>31</v>
       </c>
@@ -4273,17 +4270,17 @@
       <c r="F178" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G178" s="11" t="s">
-        <v>17</v>
+      <c r="G178" s="11">
+        <v>32720</v>
       </c>
       <c r="H178" s="11">
-        <v>32720</v>
+        <v>76443312</v>
       </c>
       <c r="I178" s="11">
-        <v>76443312</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+        <v>130481</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>32</v>
       </c>
@@ -4291,23 +4288,23 @@
         <v>47</v>
       </c>
       <c r="D179" s="9"/>
-      <c r="E179" s="9" t="s">
-        <v>17</v>
+      <c r="E179" s="9">
+        <v>20771</v>
       </c>
       <c r="F179" s="9">
-        <v>20771</v>
+        <v>26110</v>
       </c>
       <c r="G179" s="9">
-        <v>26110</v>
+        <v>25952</v>
       </c>
       <c r="H179" s="9">
-        <v>25952</v>
+        <v>38875622</v>
       </c>
       <c r="I179" s="9">
-        <v>38875622</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46298</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>33</v>
       </c>
@@ -4318,20 +4315,20 @@
       <c r="E180" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F180" s="11" t="s">
-        <v>17</v>
+      <c r="F180" s="11">
+        <v>29285</v>
       </c>
       <c r="G180" s="11">
-        <v>29285</v>
+        <v>18109</v>
       </c>
       <c r="H180" s="11">
-        <v>18109</v>
+        <v>99480392</v>
       </c>
       <c r="I180" s="11">
-        <v>99480392</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113115</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>34</v>
       </c>
@@ -4342,20 +4339,20 @@
       <c r="E181" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F181" s="9" t="s">
-        <v>17</v>
+      <c r="F181" s="9">
+        <v>13248</v>
       </c>
       <c r="G181" s="9">
-        <v>13248</v>
+        <v>14589</v>
       </c>
       <c r="H181" s="9">
-        <v>14589</v>
+        <v>21319820</v>
       </c>
       <c r="I181" s="9">
-        <v>21319820</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32513</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>35</v>
       </c>
@@ -4372,14 +4369,14 @@
       <c r="G182" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H182" s="11" t="s">
-        <v>17</v>
+      <c r="H182" s="11">
+        <v>111270</v>
       </c>
       <c r="I182" s="11">
-        <v>111270</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+        <v>135108</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4389,7 +4386,7 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4399,7 +4396,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4409,7 +4406,7 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B186" s="7" t="s">
         <v>49</v>
       </c>
@@ -4431,7 +4428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4441,7 +4438,7 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="8" t="s">
         <v>23</v>
       </c>
@@ -4449,23 +4446,23 @@
         <v>47</v>
       </c>
       <c r="D188" s="9"/>
-      <c r="E188" s="9" t="s">
-        <v>17</v>
+      <c r="E188" s="9">
+        <v>33062</v>
       </c>
       <c r="F188" s="9">
-        <v>33062</v>
+        <v>35611</v>
       </c>
       <c r="G188" s="9">
-        <v>35611</v>
+        <v>97848</v>
       </c>
       <c r="H188" s="9">
-        <v>97848</v>
+        <v>127404255</v>
       </c>
       <c r="I188" s="9">
-        <v>127404255</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+        <v>256250</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>25</v>
       </c>
@@ -4473,23 +4470,23 @@
         <v>47</v>
       </c>
       <c r="D189" s="11"/>
-      <c r="E189" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F189" s="11">
+      <c r="E189" s="11">
         <v>19894563</v>
       </c>
-      <c r="G189" s="11" t="s">
-        <v>17</v>
+      <c r="F189" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G189" s="11">
+        <v>87382</v>
       </c>
       <c r="H189" s="11">
-        <v>87382</v>
+        <v>106307592</v>
       </c>
       <c r="I189" s="11">
-        <v>106307592</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+        <v>189150</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>26</v>
       </c>
@@ -4497,23 +4494,23 @@
         <v>47</v>
       </c>
       <c r="D190" s="9"/>
-      <c r="E190" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F190" s="9">
+      <c r="E190" s="9">
         <v>69715</v>
       </c>
-      <c r="G190" s="9" t="s">
-        <v>17</v>
+      <c r="F190" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G190" s="9">
+        <v>179211</v>
       </c>
       <c r="H190" s="9">
-        <v>179211</v>
+        <v>295114474</v>
       </c>
       <c r="I190" s="9">
-        <v>295114474</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+        <v>631949</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>27</v>
       </c>
@@ -4521,23 +4518,23 @@
         <v>47</v>
       </c>
       <c r="D191" s="11"/>
-      <c r="E191" s="11" t="s">
-        <v>17</v>
+      <c r="E191" s="11">
+        <v>14346</v>
       </c>
       <c r="F191" s="11">
-        <v>14346</v>
+        <v>19888</v>
       </c>
       <c r="G191" s="11">
-        <v>19888</v>
+        <v>25918</v>
       </c>
       <c r="H191" s="11">
-        <v>25918</v>
+        <v>49621007</v>
       </c>
       <c r="I191" s="11">
-        <v>49621007</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+        <v>70530</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>28</v>
       </c>
@@ -4545,23 +4542,23 @@
         <v>47</v>
       </c>
       <c r="D192" s="9"/>
-      <c r="E192" s="9" t="s">
-        <v>17</v>
+      <c r="E192" s="9">
+        <v>3030</v>
       </c>
       <c r="F192" s="9">
-        <v>3030</v>
+        <v>5068</v>
       </c>
       <c r="G192" s="9">
-        <v>5068</v>
+        <v>7243</v>
       </c>
       <c r="H192" s="9">
-        <v>7243</v>
+        <v>15255899</v>
       </c>
       <c r="I192" s="9">
-        <v>15255899</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17485</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>29</v>
       </c>
@@ -4569,23 +4566,23 @@
         <v>47</v>
       </c>
       <c r="D193" s="11"/>
-      <c r="E193" s="11" t="s">
-        <v>17</v>
+      <c r="E193" s="11">
+        <v>15192</v>
       </c>
       <c r="F193" s="11">
-        <v>15192</v>
+        <v>25380</v>
       </c>
       <c r="G193" s="11">
-        <v>25380</v>
+        <v>30723</v>
       </c>
       <c r="H193" s="11">
-        <v>30723</v>
+        <v>52517759</v>
       </c>
       <c r="I193" s="11">
-        <v>52517759</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+        <v>85049</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>30</v>
       </c>
@@ -4593,23 +4590,23 @@
         <v>47</v>
       </c>
       <c r="D194" s="9"/>
-      <c r="E194" s="9" t="s">
-        <v>17</v>
+      <c r="E194" s="9">
+        <v>13021</v>
       </c>
       <c r="F194" s="9">
-        <v>13021</v>
+        <v>15572</v>
       </c>
       <c r="G194" s="9">
-        <v>15572</v>
+        <v>26272</v>
       </c>
       <c r="H194" s="9">
-        <v>26272</v>
+        <v>36910068</v>
       </c>
       <c r="I194" s="9">
-        <v>36910068</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110329</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>31</v>
       </c>
@@ -4623,17 +4620,17 @@
       <c r="F195" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G195" s="11" t="s">
-        <v>17</v>
+      <c r="G195" s="11">
+        <v>84857</v>
       </c>
       <c r="H195" s="11">
-        <v>84857</v>
+        <v>110425494</v>
       </c>
       <c r="I195" s="11">
-        <v>110425494</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+        <v>143332</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>32</v>
       </c>
@@ -4641,23 +4638,23 @@
         <v>47</v>
       </c>
       <c r="D196" s="9"/>
-      <c r="E196" s="9" t="s">
-        <v>17</v>
+      <c r="E196" s="9">
+        <v>24875</v>
       </c>
       <c r="F196" s="9">
-        <v>24875</v>
+        <v>26119</v>
       </c>
       <c r="G196" s="9">
-        <v>26119</v>
+        <v>43840</v>
       </c>
       <c r="H196" s="9">
-        <v>43840</v>
+        <v>45048070</v>
       </c>
       <c r="I196" s="9">
-        <v>45048070</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+        <v>165426</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>33</v>
       </c>
@@ -4668,20 +4665,20 @@
       <c r="E197" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F197" s="11" t="s">
-        <v>17</v>
+      <c r="F197" s="11">
+        <v>22613</v>
       </c>
       <c r="G197" s="11">
-        <v>22613</v>
+        <v>58669</v>
       </c>
       <c r="H197" s="11">
-        <v>58669</v>
+        <v>90068966</v>
       </c>
       <c r="I197" s="11">
-        <v>90068966</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+        <v>133951</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="8" t="s">
         <v>34</v>
       </c>
@@ -4689,23 +4686,23 @@
         <v>47</v>
       </c>
       <c r="D198" s="9"/>
-      <c r="E198" s="9" t="s">
-        <v>17</v>
+      <c r="E198" s="9">
+        <v>12339</v>
       </c>
       <c r="F198" s="9">
-        <v>12339</v>
+        <v>14941</v>
       </c>
       <c r="G198" s="9">
-        <v>14941</v>
+        <v>21925</v>
       </c>
       <c r="H198" s="9">
-        <v>21925</v>
+        <v>34720257</v>
       </c>
       <c r="I198" s="9">
-        <v>34720257</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+        <v>102202</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>35</v>
       </c>
@@ -4722,14 +4719,14 @@
       <c r="G199" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H199" s="11" t="s">
-        <v>17</v>
+      <c r="H199" s="11">
+        <v>220515</v>
       </c>
       <c r="I199" s="11">
-        <v>220515</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1054413</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -4739,7 +4736,7 @@
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -4749,7 +4746,7 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -4759,7 +4756,7 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B203" s="7" t="s">
         <v>50</v>
       </c>
@@ -4781,7 +4778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4791,7 +4788,7 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>23</v>
       </c>
@@ -4799,23 +4796,23 @@
         <v>47</v>
       </c>
       <c r="D205" s="9"/>
-      <c r="E205" s="9" t="s">
-        <v>17</v>
+      <c r="E205" s="9">
+        <v>32036</v>
       </c>
       <c r="F205" s="9">
-        <v>32036</v>
+        <v>35792</v>
       </c>
       <c r="G205" s="9">
-        <v>35792</v>
+        <v>87563</v>
       </c>
       <c r="H205" s="9">
-        <v>87563</v>
+        <v>130290084</v>
       </c>
       <c r="I205" s="9">
-        <v>130290084</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+        <v>242211</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>25</v>
       </c>
@@ -4823,23 +4820,23 @@
         <v>47</v>
       </c>
       <c r="D206" s="11"/>
-      <c r="E206" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F206" s="11">
+      <c r="E206" s="11">
         <v>19386243</v>
       </c>
-      <c r="G206" s="11" t="s">
-        <v>17</v>
+      <c r="F206" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G206" s="11">
+        <v>82504</v>
       </c>
       <c r="H206" s="11">
-        <v>82504</v>
+        <v>105018999</v>
       </c>
       <c r="I206" s="11">
-        <v>105018999</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+        <v>182762</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>26</v>
       </c>
@@ -4847,23 +4844,23 @@
         <v>47</v>
       </c>
       <c r="D207" s="9"/>
-      <c r="E207" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F207" s="9">
+      <c r="E207" s="9">
         <v>63823</v>
       </c>
-      <c r="G207" s="9" t="s">
-        <v>17</v>
+      <c r="F207" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G207" s="9">
+        <v>176955</v>
       </c>
       <c r="H207" s="9">
-        <v>176955</v>
+        <v>286952191</v>
       </c>
       <c r="I207" s="9">
-        <v>286952191</v>
-      </c>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+        <v>612524</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>27</v>
       </c>
@@ -4871,23 +4868,23 @@
         <v>47</v>
       </c>
       <c r="D208" s="11"/>
-      <c r="E208" s="11" t="s">
-        <v>17</v>
+      <c r="E208" s="11">
+        <v>13836</v>
       </c>
       <c r="F208" s="11">
-        <v>13836</v>
+        <v>19331</v>
       </c>
       <c r="G208" s="11">
-        <v>19331</v>
+        <v>24879</v>
       </c>
       <c r="H208" s="11">
-        <v>24879</v>
+        <v>47522935</v>
       </c>
       <c r="I208" s="11">
-        <v>47522935</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+        <v>65764</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>28</v>
       </c>
@@ -4895,23 +4892,23 @@
         <v>47</v>
       </c>
       <c r="D209" s="9"/>
-      <c r="E209" s="9" t="s">
-        <v>17</v>
+      <c r="E209" s="9">
+        <v>2572</v>
       </c>
       <c r="F209" s="9">
-        <v>2572</v>
+        <v>4501</v>
       </c>
       <c r="G209" s="9">
-        <v>4501</v>
+        <v>6197</v>
       </c>
       <c r="H209" s="9">
-        <v>6197</v>
+        <v>12393743</v>
       </c>
       <c r="I209" s="9">
-        <v>12393743</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16450</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
         <v>29</v>
       </c>
@@ -4919,23 +4916,23 @@
         <v>47</v>
       </c>
       <c r="D210" s="11"/>
-      <c r="E210" s="11" t="s">
-        <v>17</v>
+      <c r="E210" s="11">
+        <v>11850</v>
       </c>
       <c r="F210" s="11">
-        <v>11850</v>
+        <v>20848</v>
       </c>
       <c r="G210" s="11">
-        <v>20848</v>
+        <v>28894</v>
       </c>
       <c r="H210" s="11">
-        <v>28894</v>
+        <v>45398017</v>
       </c>
       <c r="I210" s="11">
-        <v>45398017</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+        <v>80059</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>30</v>
       </c>
@@ -4943,23 +4940,23 @@
         <v>47</v>
       </c>
       <c r="D211" s="9"/>
-      <c r="E211" s="9" t="s">
-        <v>17</v>
+      <c r="E211" s="9">
+        <v>12738</v>
       </c>
       <c r="F211" s="9">
-        <v>12738</v>
+        <v>15553</v>
       </c>
       <c r="G211" s="9">
-        <v>15553</v>
+        <v>25586</v>
       </c>
       <c r="H211" s="9">
-        <v>25586</v>
+        <v>36073339</v>
       </c>
       <c r="I211" s="9">
-        <v>36073339</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+        <v>101546</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B212" s="10" t="s">
         <v>31</v>
       </c>
@@ -4973,17 +4970,17 @@
       <c r="F212" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G212" s="11" t="s">
-        <v>17</v>
+      <c r="G212" s="11">
+        <v>55596</v>
       </c>
       <c r="H212" s="11">
-        <v>55596</v>
+        <v>84754266</v>
       </c>
       <c r="I212" s="11">
-        <v>84754266</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+        <v>140625</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B213" s="8" t="s">
         <v>32</v>
       </c>
@@ -4991,23 +4988,23 @@
         <v>47</v>
       </c>
       <c r="D213" s="9"/>
-      <c r="E213" s="9" t="s">
-        <v>17</v>
+      <c r="E213" s="9">
+        <v>24421</v>
       </c>
       <c r="F213" s="9">
-        <v>24421</v>
+        <v>26167</v>
       </c>
       <c r="G213" s="9">
-        <v>26167</v>
+        <v>39076</v>
       </c>
       <c r="H213" s="9">
-        <v>39076</v>
+        <v>44257296</v>
       </c>
       <c r="I213" s="9">
-        <v>44257296</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+        <v>139381</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B214" s="10" t="s">
         <v>33</v>
       </c>
@@ -5018,20 +5015,20 @@
       <c r="E214" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F214" s="11" t="s">
-        <v>17</v>
+      <c r="F214" s="11">
+        <v>23368</v>
       </c>
       <c r="G214" s="11">
-        <v>23368</v>
+        <v>50244</v>
       </c>
       <c r="H214" s="11">
-        <v>50244</v>
+        <v>87545593</v>
       </c>
       <c r="I214" s="11">
-        <v>87545593</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+        <v>130423</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B215" s="8" t="s">
         <v>34</v>
       </c>
@@ -5039,23 +5036,23 @@
         <v>47</v>
       </c>
       <c r="D215" s="9"/>
-      <c r="E215" s="9" t="s">
-        <v>17</v>
+      <c r="E215" s="9">
+        <v>14685</v>
       </c>
       <c r="F215" s="9">
-        <v>14685</v>
+        <v>14695</v>
       </c>
       <c r="G215" s="9">
-        <v>14695</v>
+        <v>21509</v>
       </c>
       <c r="H215" s="9">
-        <v>21509</v>
+        <v>34280465</v>
       </c>
       <c r="I215" s="9">
-        <v>34280465</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+        <v>98933</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B216" s="10" t="s">
         <v>35</v>
       </c>
@@ -5072,14 +5069,14 @@
       <c r="G216" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H216" s="11" t="s">
-        <v>17</v>
+      <c r="H216" s="11">
+        <v>196677</v>
       </c>
       <c r="I216" s="11">
-        <v>196677</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+        <v>886250</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -5089,7 +5086,7 @@
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -5099,7 +5096,7 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -5109,7 +5106,7 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B220" s="7" t="s">
         <v>51</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -5141,7 +5138,7 @@
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B222" s="8" t="s">
         <v>23</v>
       </c>
@@ -5149,23 +5146,23 @@
         <v>24</v>
       </c>
       <c r="D222" s="9"/>
-      <c r="E222" s="9" t="s">
-        <v>17</v>
+      <c r="E222" s="9">
+        <v>39891</v>
       </c>
       <c r="F222" s="9">
-        <v>39891</v>
+        <v>34931</v>
       </c>
       <c r="G222" s="9">
-        <v>34931</v>
+        <v>155210</v>
       </c>
       <c r="H222" s="9">
-        <v>155210</v>
+        <v>137724638</v>
       </c>
       <c r="I222" s="9">
-        <v>137724638</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+        <v>286304</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B223" s="10" t="s">
         <v>25</v>
       </c>
@@ -5173,23 +5170,23 @@
         <v>24</v>
       </c>
       <c r="D223" s="11"/>
-      <c r="E223" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F223" s="11">
+      <c r="E223" s="11">
         <v>26232558</v>
       </c>
-      <c r="G223" s="11" t="s">
-        <v>17</v>
+      <c r="F223" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G223" s="11">
+        <v>107396</v>
       </c>
       <c r="H223" s="11">
-        <v>107396</v>
+        <v>129020833</v>
       </c>
       <c r="I223" s="11">
-        <v>129020833</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+        <v>242538</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B224" s="8" t="s">
         <v>26</v>
       </c>
@@ -5197,23 +5194,23 @@
         <v>24</v>
       </c>
       <c r="D224" s="9"/>
-      <c r="E224" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F224" s="9">
+      <c r="E224" s="9">
         <v>98040</v>
       </c>
-      <c r="G224" s="9" t="s">
-        <v>17</v>
+      <c r="F224" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G224" s="9">
+        <v>151619</v>
       </c>
       <c r="H224" s="9">
-        <v>151619</v>
+        <v>373711111</v>
       </c>
       <c r="I224" s="9">
-        <v>373711111</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+        <v>676426</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B225" s="10" t="s">
         <v>27</v>
       </c>
@@ -5221,23 +5218,23 @@
         <v>24</v>
       </c>
       <c r="D225" s="11"/>
-      <c r="E225" s="11" t="s">
-        <v>17</v>
+      <c r="E225" s="11">
+        <v>15945</v>
       </c>
       <c r="F225" s="11">
-        <v>15945</v>
+        <v>21312</v>
       </c>
       <c r="G225" s="11">
-        <v>21312</v>
+        <v>30600</v>
       </c>
       <c r="H225" s="11">
-        <v>30600</v>
+        <v>49706105</v>
       </c>
       <c r="I225" s="11">
-        <v>49706105</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68779</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B226" s="8" t="s">
         <v>28</v>
       </c>
@@ -5245,23 +5242,23 @@
         <v>24</v>
       </c>
       <c r="D226" s="9"/>
-      <c r="E226" s="9" t="s">
-        <v>17</v>
+      <c r="E226" s="9">
+        <v>3060</v>
       </c>
       <c r="F226" s="9">
-        <v>3060</v>
+        <v>5066</v>
       </c>
       <c r="G226" s="9">
-        <v>5066</v>
+        <v>7612</v>
       </c>
       <c r="H226" s="9">
-        <v>7612</v>
+        <v>14469298</v>
       </c>
       <c r="I226" s="9">
-        <v>14469298</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16752</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B227" s="10" t="s">
         <v>29</v>
       </c>
@@ -5269,23 +5266,23 @@
         <v>24</v>
       </c>
       <c r="D227" s="11"/>
-      <c r="E227" s="11" t="s">
-        <v>17</v>
+      <c r="E227" s="11">
+        <v>16668</v>
       </c>
       <c r="F227" s="11">
-        <v>16668</v>
+        <v>25573</v>
       </c>
       <c r="G227" s="11">
-        <v>25573</v>
+        <v>31280</v>
       </c>
       <c r="H227" s="11">
-        <v>31280</v>
+        <v>57473810</v>
       </c>
       <c r="I227" s="11">
-        <v>57473810</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+        <v>86704</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B228" s="8" t="s">
         <v>30</v>
       </c>
@@ -5293,23 +5290,23 @@
         <v>24</v>
       </c>
       <c r="D228" s="9"/>
-      <c r="E228" s="9" t="s">
-        <v>17</v>
+      <c r="E228" s="9">
+        <v>14672</v>
       </c>
       <c r="F228" s="9">
-        <v>14672</v>
+        <v>15366</v>
       </c>
       <c r="G228" s="9">
-        <v>15366</v>
+        <v>27852</v>
       </c>
       <c r="H228" s="9">
-        <v>27852</v>
+        <v>36864491</v>
       </c>
       <c r="I228" s="9">
-        <v>36864491</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116730</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B229" s="10" t="s">
         <v>31</v>
       </c>
@@ -5323,17 +5320,17 @@
       <c r="F229" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G229" s="11" t="s">
-        <v>17</v>
+      <c r="G229" s="11">
+        <v>76443</v>
       </c>
       <c r="H229" s="11">
-        <v>76443</v>
+        <v>130488235</v>
       </c>
       <c r="I229" s="11">
-        <v>130488235</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+        <v>149695</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B230" s="8" t="s">
         <v>32</v>
       </c>
@@ -5341,23 +5338,23 @@
         <v>24</v>
       </c>
       <c r="D230" s="9"/>
-      <c r="E230" s="9" t="s">
-        <v>17</v>
+      <c r="E230" s="9">
+        <v>26098</v>
       </c>
       <c r="F230" s="9">
-        <v>26098</v>
+        <v>25952</v>
       </c>
       <c r="G230" s="9">
-        <v>25952</v>
+        <v>38876</v>
       </c>
       <c r="H230" s="9">
-        <v>38876</v>
+        <v>46296596</v>
       </c>
       <c r="I230" s="9">
-        <v>46296596</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+        <v>263567</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B231" s="10" t="s">
         <v>33</v>
       </c>
@@ -5368,20 +5365,20 @@
       <c r="E231" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F231" s="11" t="s">
-        <v>17</v>
+      <c r="F231" s="11">
+        <v>18109</v>
       </c>
       <c r="G231" s="11">
-        <v>18109</v>
+        <v>99480</v>
       </c>
       <c r="H231" s="11">
-        <v>99480</v>
+        <v>113675676</v>
       </c>
       <c r="I231" s="11">
-        <v>113675676</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+        <v>164169</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B232" s="8" t="s">
         <v>34</v>
       </c>
@@ -5389,28 +5386,28 @@
         <v>24</v>
       </c>
       <c r="D232" s="9"/>
-      <c r="E232" s="9" t="s">
-        <v>17</v>
+      <c r="E232" s="9">
+        <v>7288</v>
       </c>
       <c r="F232" s="9">
-        <v>7288</v>
+        <v>14589</v>
       </c>
       <c r="G232" s="9">
-        <v>14589</v>
+        <v>21324</v>
       </c>
       <c r="H232" s="9">
-        <v>21324</v>
+        <v>32472441</v>
       </c>
       <c r="I232" s="9">
-        <v>32472441</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+        <v>76930</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B233" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D233" s="11"/>
       <c r="E233" s="11" t="s">
@@ -5422,14 +5419,14 @@
       <c r="G233" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H233" s="11" t="s">
-        <v>17</v>
+      <c r="H233" s="11">
+        <v>135108</v>
       </c>
       <c r="I233" s="11">
-        <v>135108</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+        <v>303271</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -5439,7 +5436,7 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -5449,7 +5446,7 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -5459,9 +5456,9 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B237" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -5481,7 +5478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -5491,9 +5488,9 @@
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B239" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
@@ -5503,19 +5500,19 @@
       <c r="F239" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G239" s="9" t="s">
-        <v>17</v>
+      <c r="G239" s="9">
+        <v>24073</v>
       </c>
       <c r="H239" s="9">
-        <v>24073</v>
+        <v>55724</v>
       </c>
       <c r="I239" s="9">
-        <v>55724</v>
-      </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+        <v>108555</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B240" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
@@ -5526,18 +5523,18 @@
         <v>0</v>
       </c>
       <c r="G240" s="11">
-        <v>0</v>
+        <v>6136</v>
       </c>
       <c r="H240" s="11">
-        <v>6136</v>
+        <v>12194</v>
       </c>
       <c r="I240" s="11">
-        <v>12194</v>
-      </c>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26732</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B241" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
@@ -5557,9 +5554,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B242" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
@@ -5579,9 +5576,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B243" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -5601,97 +5598,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B244" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11">
-        <v>1379</v>
+        <v>1880</v>
       </c>
       <c r="F244" s="11">
-        <v>1880</v>
+        <v>5919</v>
       </c>
       <c r="G244" s="11">
-        <v>5919</v>
+        <v>9770</v>
       </c>
       <c r="H244" s="11">
-        <v>9770</v>
+        <v>23098</v>
       </c>
       <c r="I244" s="11">
-        <v>23098</v>
-      </c>
-    </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+        <v>87888</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B245" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9">
-        <v>1119</v>
+        <v>2142</v>
       </c>
       <c r="F245" s="9">
-        <v>2142</v>
+        <v>2066</v>
       </c>
       <c r="G245" s="9">
-        <v>2066</v>
+        <v>2033</v>
       </c>
       <c r="H245" s="9">
-        <v>2033</v>
+        <v>4672</v>
       </c>
       <c r="I245" s="9">
-        <v>4672</v>
-      </c>
-    </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10782</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B246" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11">
-        <v>39511</v>
+        <v>37667</v>
       </c>
       <c r="F246" s="11">
-        <v>37667</v>
+        <v>26015</v>
       </c>
       <c r="G246" s="11">
-        <v>26015</v>
+        <v>21522</v>
       </c>
       <c r="H246" s="11">
-        <v>21522</v>
+        <v>67943</v>
       </c>
       <c r="I246" s="11">
-        <v>67943</v>
-      </c>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+        <v>132509</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B247" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9">
-        <v>8341</v>
+        <v>11691</v>
       </c>
       <c r="F247" s="9">
-        <v>11691</v>
+        <v>19610</v>
       </c>
       <c r="G247" s="9">
-        <v>19610</v>
+        <v>34189</v>
       </c>
       <c r="H247" s="9">
-        <v>34189</v>
+        <v>64515</v>
       </c>
       <c r="I247" s="9">
-        <v>64515</v>
-      </c>
-    </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+        <v>145027</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B248" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
@@ -5711,48 +5708,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B249" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="9">
-        <v>33967</v>
+        <v>56453</v>
       </c>
       <c r="F249" s="9">
-        <v>56453</v>
+        <v>82743</v>
       </c>
       <c r="G249" s="9">
-        <v>82743</v>
+        <v>128788</v>
       </c>
       <c r="H249" s="9">
-        <v>128788</v>
+        <v>189868</v>
       </c>
       <c r="I249" s="9">
-        <v>189868</v>
-      </c>
-    </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+        <v>346785</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B250" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
       <c r="E250" s="13">
-        <v>84317</v>
+        <v>109833</v>
       </c>
       <c r="F250" s="13">
-        <v>109833</v>
+        <v>136353</v>
       </c>
       <c r="G250" s="13">
-        <v>136353</v>
+        <v>226511</v>
       </c>
       <c r="H250" s="13">
-        <v>226511</v>
+        <v>418014</v>
       </c>
       <c r="I250" s="13">
-        <v>418014</v>
+        <v>858278</v>
       </c>
     </row>
   </sheetData>
